--- a/model/Sistemas.xlsx
+++ b/model/Sistemas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
@@ -331,10 +331,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -354,6 +354,11 @@
           <t>nome_sistema</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>trash</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" t="inlineStr">
@@ -366,6 +371,9 @@
           <t>Serviço de exemplo</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -378,6 +386,9 @@
           <t>Serviço de exemplo</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -390,6 +401,9 @@
           <t>Serviço de exemplo</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -402,6 +416,9 @@
           <t>Serviço de exemplo</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -414,8 +431,11 @@
           <t>Serviço feito de exemplo</t>
         </is>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>52452652</t>
@@ -426,7 +446,56 @@
           <t>Servico Teste 1</t>
         </is>
       </c>
-    </row>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>424640</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sistema 1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>424640</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sistema 1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4246404654</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sistema 4582</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
